--- a/biology/Botanique/Solanum_acaule/Solanum_acaule.xlsx
+++ b/biology/Botanique/Solanum_acaule/Solanum_acaule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Solanum acaule est une espèce de plante herbacée tubéreuse appartenant au genre Solanum et à la famille des Solanacées, originaire des régions andines d'Amérique du Sud.
 Cette espèce de pomme de terre sauvage, proche de la pomme de terre cultivée (Solanum tuberosum), classée comme celle-ci dans la section Petota du genre Solanum, est également tétraploïde (2n=4x=48).
@@ -512,11 +524,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Solanum acaule a un port prostré, aux feuilles imparipennées, formant  une rosette de 15 à 20 cm de diamètre, sans tiges ou à tiges assez courtes.
-Les tubercules, ovales ou ronds, de couleur blanche, ont 1,5 à 2 cm de long[1].
-Cette espèce est l'une des plus résistantes au froid parmi les pommes de terre sauvages[2].
+Les tubercules, ovales ou ronds, de couleur blanche, ont 1,5 à 2 cm de long.
+Cette espèce est l'une des plus résistantes au froid parmi les pommes de terre sauvages.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a une aire de répartition relativement étendue. On la trouve dans les régions andines allant du nord du Pérou (région d'Ancash) au nord-ouest de l'Argentine (province de Rioja). En Bolivie, elle est fréquente dans la Puna, en particulier aux alentours du lac Titicaca[1].
-En altitude, son habitat s'étage entre 2600 et 4600 mètres, altitude la plus élevée constatée parmi toutes les pommes de terre sauvages[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a une aire de répartition relativement étendue. On la trouve dans les régions andines allant du nord du Pérou (région d'Ancash) au nord-ouest de l'Argentine (province de Rioja). En Bolivie, elle est fréquente dans la Puna, en particulier aux alentours du lac Titicaca.
+En altitude, son habitat s'étage entre 2600 et 4600 mètres, altitude la plus élevée constatée parmi toutes les pommes de terre sauvages.
 </t>
         </is>
       </c>
